--- a/database/industries/darou/dekapsul/balancesheet/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\dekapsul\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1042F9A7-5FF2-4774-A1F4-058B9F56B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76486077-816A-4BA6-AEE5-B773564A2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-08-20 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-02-07 (9)</t>
+  </si>
+  <si>
+    <t>1400-04-29</t>
+  </si>
+  <si>
+    <t>1400-08-16 (3)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>145972</v>
+      </c>
+      <c r="E12" s="15">
+        <v>138320</v>
+      </c>
+      <c r="F12" s="15">
+        <v>233344</v>
+      </c>
+      <c r="G12" s="15">
+        <v>256927</v>
+      </c>
+      <c r="H12" s="15">
+        <v>494651</v>
+      </c>
+      <c r="I12" s="15">
         <v>527854</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>663870</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>994474</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>715418</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>783142</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>34500</v>
+        <v>33000</v>
       </c>
       <c r="E13" s="11">
-        <v>34500</v>
+        <v>33000</v>
       </c>
       <c r="F13" s="11">
         <v>34500</v>
       </c>
       <c r="G13" s="11">
-        <v>34500</v>
+        <v>55604</v>
       </c>
       <c r="H13" s="11">
         <v>34500</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="11">
+        <v>34500</v>
+      </c>
+      <c r="J13" s="11">
+        <v>34500</v>
+      </c>
+      <c r="K13" s="11">
+        <v>34500</v>
+      </c>
+      <c r="L13" s="11">
+        <v>34500</v>
+      </c>
+      <c r="M13" s="11">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>309308</v>
+      </c>
+      <c r="E14" s="15">
+        <v>405629</v>
+      </c>
+      <c r="F14" s="15">
+        <v>280799</v>
+      </c>
+      <c r="G14" s="15">
+        <v>425707</v>
+      </c>
+      <c r="H14" s="15">
+        <v>307729</v>
+      </c>
+      <c r="I14" s="15">
         <v>493259</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>419745</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>1159348</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>1242668</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>1517805</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>154358</v>
+      </c>
+      <c r="E15" s="11">
+        <v>437704</v>
+      </c>
+      <c r="F15" s="11">
+        <v>977608</v>
+      </c>
+      <c r="G15" s="11">
+        <v>815197</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1363122</v>
+      </c>
+      <c r="I15" s="11">
         <v>1066251</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>1137201</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>956424</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>1543865</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>1168291</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>375552</v>
+      </c>
+      <c r="E16" s="15">
+        <v>426201</v>
+      </c>
+      <c r="F16" s="15">
+        <v>429547</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1049693</v>
+      </c>
+      <c r="H16" s="15">
+        <v>47834</v>
+      </c>
+      <c r="I16" s="15">
         <v>325426</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>602971</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>731728</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>422295</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>617494</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,52 +1151,97 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>1018190</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1440854</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1955798</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2603128</v>
+      </c>
+      <c r="H18" s="17">
+        <v>2247836</v>
+      </c>
+      <c r="I18" s="17">
         <v>2447290</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>2858287</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>3876474</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>3958746</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>4121232</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>7162</v>
+      </c>
+      <c r="E19" s="11">
+        <v>7863</v>
+      </c>
+      <c r="F19" s="11">
+        <v>6911</v>
+      </c>
+      <c r="G19" s="11">
+        <v>5417</v>
+      </c>
+      <c r="H19" s="11">
+        <v>4141</v>
+      </c>
+      <c r="I19" s="11">
         <v>3950</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>12425</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>13450</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>15456</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>18750</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
@@ -1032,10 +1259,25 @@
       <c r="H20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,73 +1295,133 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>262415</v>
+      </c>
+      <c r="E22" s="15">
+        <v>209075</v>
+      </c>
+      <c r="F22" s="15">
+        <v>289397</v>
+      </c>
+      <c r="G22" s="15">
+        <v>291834</v>
+      </c>
+      <c r="H22" s="15">
+        <v>308928</v>
+      </c>
+      <c r="I22" s="15">
         <v>318550</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>392650</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>432104</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>644779</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>727560</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>3957</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3041</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2767</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2476</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2240</v>
+      </c>
+      <c r="I23" s="11">
         <v>13341</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>13063</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>18831</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>18553</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>18955</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>273534</v>
+      </c>
+      <c r="E26" s="17">
+        <v>219979</v>
+      </c>
+      <c r="F26" s="17">
+        <v>299075</v>
+      </c>
+      <c r="G26" s="17">
+        <v>299727</v>
+      </c>
+      <c r="H26" s="17">
+        <v>315309</v>
+      </c>
+      <c r="I26" s="17">
         <v>335841</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>418138</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>464385</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>678788</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>765265</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>1291724</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1660833</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2254873</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2902855</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2563145</v>
+      </c>
+      <c r="I27" s="19">
         <v>2783131</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>3276425</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>4340859</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>4637534</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>4886497</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,157 +1537,267 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>148205</v>
+      </c>
+      <c r="E29" s="15">
+        <v>145966</v>
+      </c>
+      <c r="F29" s="15">
+        <v>380308</v>
+      </c>
+      <c r="G29" s="15">
+        <v>439917</v>
+      </c>
+      <c r="H29" s="15">
+        <v>326111</v>
+      </c>
+      <c r="I29" s="15">
         <v>529984</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>319318</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>316916</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>400654</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>324556</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>142778</v>
+      </c>
+      <c r="E31" s="15">
+        <v>296653</v>
+      </c>
+      <c r="F31" s="15">
+        <v>212914</v>
+      </c>
+      <c r="G31" s="15">
+        <v>457541</v>
+      </c>
+      <c r="H31" s="15">
+        <v>140522</v>
+      </c>
+      <c r="I31" s="15">
         <v>214699</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>353390</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>733149</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>556534</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>401097</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>76557</v>
+      </c>
+      <c r="E32" s="11">
+        <v>149042</v>
+      </c>
+      <c r="F32" s="11">
+        <v>232281</v>
+      </c>
+      <c r="G32" s="11">
+        <v>322135</v>
+      </c>
+      <c r="H32" s="11">
+        <v>219411</v>
+      </c>
+      <c r="I32" s="11">
         <v>344876</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>357423</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>478428</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>377868</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>554527</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>276003</v>
+      </c>
+      <c r="E33" s="15">
+        <v>34815</v>
+      </c>
+      <c r="F33" s="15">
+        <v>29601</v>
+      </c>
+      <c r="G33" s="15">
+        <v>738077</v>
+      </c>
+      <c r="H33" s="15">
+        <v>738077</v>
+      </c>
+      <c r="I33" s="15">
         <v>52659</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>40928</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>1363531</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>1111195</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>531692</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>129733</v>
+      </c>
+      <c r="E34" s="11">
+        <v>271277</v>
+      </c>
+      <c r="F34" s="11">
+        <v>326209</v>
+      </c>
+      <c r="G34" s="11">
+        <v>272157</v>
+      </c>
+      <c r="H34" s="11">
+        <v>147034</v>
+      </c>
+      <c r="I34" s="11">
         <v>200917</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>355694</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>225755</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>101585</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>408224</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>2665</v>
+      </c>
+      <c r="E35" s="15">
+        <v>2665</v>
+      </c>
+      <c r="F35" s="15">
         <v>2210</v>
       </c>
-      <c r="E35" s="15">
+      <c r="G35" s="15">
+        <v>2210</v>
+      </c>
+      <c r="H35" s="15">
+        <v>2210</v>
+      </c>
+      <c r="I35" s="15">
+        <v>2210</v>
+      </c>
+      <c r="J35" s="15">
         <v>1603</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>1603</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>1603</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>1603</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,73 +1815,133 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>775941</v>
+      </c>
+      <c r="E37" s="17">
+        <v>900418</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1183523</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2232037</v>
+      </c>
+      <c r="H37" s="17">
+        <v>1573365</v>
+      </c>
+      <c r="I37" s="17">
         <v>1345345</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>1428356</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>3119382</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>2549439</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>2221699</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>8369</v>
+      </c>
+      <c r="E38" s="11">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <v>10349</v>
+      </c>
+      <c r="G38" s="11">
+        <v>10310</v>
+      </c>
+      <c r="H38" s="11">
+        <v>7761</v>
+      </c>
+      <c r="I38" s="11">
         <v>8552</v>
       </c>
-      <c r="E38" s="11">
+      <c r="J38" s="11">
         <v>8566</v>
       </c>
-      <c r="F38" s="11">
+      <c r="K38" s="11">
         <v>9251</v>
       </c>
-      <c r="G38" s="11">
+      <c r="L38" s="11">
         <v>10083</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>10944</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>42897</v>
+      </c>
+      <c r="E41" s="15">
+        <v>42062</v>
+      </c>
+      <c r="F41" s="15">
+        <v>40394</v>
+      </c>
+      <c r="G41" s="15">
+        <v>56086</v>
+      </c>
+      <c r="H41" s="15">
+        <v>57086</v>
+      </c>
+      <c r="I41" s="15">
         <v>58751</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>59970</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>84168</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>90030</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>91919</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>51266</v>
+      </c>
+      <c r="E42" s="19">
+        <v>42062</v>
+      </c>
+      <c r="F42" s="19">
+        <v>50743</v>
+      </c>
+      <c r="G42" s="19">
+        <v>66396</v>
+      </c>
+      <c r="H42" s="19">
+        <v>64847</v>
+      </c>
+      <c r="I42" s="19">
         <v>67303</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>68536</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>93419</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>100113</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>102863</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>827207</v>
+      </c>
+      <c r="E43" s="17">
+        <v>942480</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1234266</v>
+      </c>
+      <c r="G43" s="17">
+        <v>2298433</v>
+      </c>
+      <c r="H43" s="17">
+        <v>1638212</v>
+      </c>
+      <c r="I43" s="17">
         <v>1412648</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>1496892</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>3212801</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>2649552</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>2324562</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
         <v>200000</v>
       </c>
       <c r="E45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="F45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="G45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="H45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="I45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="J45" s="15">
         <v>300000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>300000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>300000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>300000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,94 +2155,169 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
+        <v>0</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>33058</v>
+      </c>
+      <c r="G47" s="15">
+        <v>33058</v>
+      </c>
+      <c r="H47" s="15">
+        <v>93570</v>
+      </c>
+      <c r="I47" s="15">
         <v>100000</v>
       </c>
-      <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>-22603</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
         <v>-38521</v>
       </c>
-      <c r="E48" s="11">
+      <c r="I48" s="11">
+        <v>-38521</v>
+      </c>
+      <c r="J48" s="11">
         <v>-38522</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>-38522</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>-38521</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>-38522</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
+        <v>0</v>
+      </c>
+      <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15">
+        <v>2510</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
         <v>10095</v>
       </c>
-      <c r="E49" s="15">
+      <c r="I49" s="15">
+        <v>10095</v>
+      </c>
+      <c r="J49" s="15">
         <v>11243</v>
       </c>
-      <c r="F49" s="15">
+      <c r="K49" s="15">
         <v>20541</v>
       </c>
-      <c r="G49" s="15">
+      <c r="L49" s="15">
         <v>24144</v>
       </c>
-      <c r="H49" s="15">
+      <c r="M49" s="15">
         <v>30981</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
         <v>20000</v>
       </c>
       <c r="E50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="F50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="G50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="H50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="I50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="J50" s="11">
         <v>30000</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>30000</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>30000</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>244517</v>
+      </c>
+      <c r="E56" s="11">
+        <v>498353</v>
+      </c>
+      <c r="F56" s="11">
+        <v>787642</v>
+      </c>
+      <c r="G56" s="11">
+        <v>351364</v>
+      </c>
+      <c r="H56" s="11">
+        <v>639789</v>
+      </c>
+      <c r="I56" s="11">
         <v>1078909</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>1476812</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>816039</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>1672359</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>2239476</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>464517</v>
+      </c>
+      <c r="E57" s="17">
+        <v>718353</v>
+      </c>
+      <c r="F57" s="17">
+        <v>1020607</v>
+      </c>
+      <c r="G57" s="17">
+        <v>604422</v>
+      </c>
+      <c r="H57" s="17">
+        <v>924933</v>
+      </c>
+      <c r="I57" s="17">
         <v>1370483</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>1779533</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>1128058</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>1987982</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>2561935</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>1291724</v>
+      </c>
+      <c r="E58" s="19">
+        <v>1660833</v>
+      </c>
+      <c r="F58" s="19">
+        <v>2254873</v>
+      </c>
+      <c r="G58" s="19">
+        <v>2902855</v>
+      </c>
+      <c r="H58" s="19">
+        <v>2563145</v>
+      </c>
+      <c r="I58" s="19">
         <v>2783131</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>3276425</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>4340859</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>4637534</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>4886497</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/darou/dekapsul/balancesheet/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76486077-816A-4BA6-AEE5-B773564A2A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB782E1-8812-4122-B0D8-0ACFEAEA6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-08-20 (2)</t>
-  </si>
-  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1400-10-30</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-02-06 (9)</t>
   </si>
   <si>
     <t>1401-05-22 (2)</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-02-06 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -732,18 +732,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +758,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +774,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +790,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +804,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +820,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +836,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +850,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +922,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +936,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,43 +952,43 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>145972</v>
+        <v>138320</v>
       </c>
       <c r="E12" s="15">
-        <v>138320</v>
+        <v>233344</v>
       </c>
       <c r="F12" s="15">
-        <v>233344</v>
+        <v>256927</v>
       </c>
       <c r="G12" s="15">
-        <v>256927</v>
+        <v>494651</v>
       </c>
       <c r="H12" s="15">
-        <v>494651</v>
+        <v>527854</v>
       </c>
       <c r="I12" s="15">
-        <v>527854</v>
+        <v>663870</v>
       </c>
       <c r="J12" s="15">
-        <v>663870</v>
+        <v>994474</v>
       </c>
       <c r="K12" s="15">
-        <v>994474</v>
+        <v>715418</v>
       </c>
       <c r="L12" s="15">
-        <v>715418</v>
+        <v>783142</v>
       </c>
       <c r="M12" s="15">
-        <v>783142</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1268292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -996,13 +997,13 @@
         <v>33000</v>
       </c>
       <c r="E13" s="11">
-        <v>33000</v>
+        <v>34500</v>
       </c>
       <c r="F13" s="11">
+        <v>55604</v>
+      </c>
+      <c r="G13" s="11">
         <v>34500</v>
-      </c>
-      <c r="G13" s="11">
-        <v>55604</v>
       </c>
       <c r="H13" s="11">
         <v>34500</v>
@@ -1020,118 +1021,118 @@
         <v>34500</v>
       </c>
       <c r="M13" s="11">
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>27003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>309308</v>
+        <v>405629</v>
       </c>
       <c r="E14" s="15">
-        <v>405629</v>
+        <v>280799</v>
       </c>
       <c r="F14" s="15">
-        <v>280799</v>
+        <v>425707</v>
       </c>
       <c r="G14" s="15">
-        <v>425707</v>
+        <v>307729</v>
       </c>
       <c r="H14" s="15">
-        <v>307729</v>
+        <v>493259</v>
       </c>
       <c r="I14" s="15">
-        <v>493259</v>
+        <v>419745</v>
       </c>
       <c r="J14" s="15">
-        <v>419745</v>
+        <v>1159348</v>
       </c>
       <c r="K14" s="15">
-        <v>1159348</v>
+        <v>1242668</v>
       </c>
       <c r="L14" s="15">
-        <v>1242668</v>
+        <v>1517805</v>
       </c>
       <c r="M14" s="15">
-        <v>1517805</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1010035</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>154358</v>
+        <v>437704</v>
       </c>
       <c r="E15" s="11">
-        <v>437704</v>
+        <v>977608</v>
       </c>
       <c r="F15" s="11">
-        <v>977608</v>
+        <v>815197</v>
       </c>
       <c r="G15" s="11">
-        <v>815197</v>
+        <v>1363122</v>
       </c>
       <c r="H15" s="11">
-        <v>1363122</v>
+        <v>1066251</v>
       </c>
       <c r="I15" s="11">
-        <v>1066251</v>
+        <v>1137201</v>
       </c>
       <c r="J15" s="11">
-        <v>1137201</v>
+        <v>956424</v>
       </c>
       <c r="K15" s="11">
-        <v>956424</v>
+        <v>1543865</v>
       </c>
       <c r="L15" s="11">
-        <v>1543865</v>
+        <v>1168291</v>
       </c>
       <c r="M15" s="11">
-        <v>1168291</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1516453</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>375552</v>
+        <v>426201</v>
       </c>
       <c r="E16" s="15">
-        <v>426201</v>
+        <v>429547</v>
       </c>
       <c r="F16" s="15">
-        <v>429547</v>
+        <v>1049693</v>
       </c>
       <c r="G16" s="15">
-        <v>1049693</v>
+        <v>47834</v>
       </c>
       <c r="H16" s="15">
-        <v>47834</v>
+        <v>325426</v>
       </c>
       <c r="I16" s="15">
-        <v>325426</v>
+        <v>602971</v>
       </c>
       <c r="J16" s="15">
-        <v>602971</v>
+        <v>731728</v>
       </c>
       <c r="K16" s="15">
-        <v>731728</v>
+        <v>422295</v>
       </c>
       <c r="L16" s="15">
-        <v>422295</v>
+        <v>617494</v>
       </c>
       <c r="M16" s="15">
-        <v>617494</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>865740</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,79 +1168,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>1018190</v>
+        <v>1440854</v>
       </c>
       <c r="E18" s="17">
-        <v>1440854</v>
+        <v>1955798</v>
       </c>
       <c r="F18" s="17">
-        <v>1955798</v>
+        <v>2603128</v>
       </c>
       <c r="G18" s="17">
-        <v>2603128</v>
+        <v>2247836</v>
       </c>
       <c r="H18" s="17">
-        <v>2247836</v>
+        <v>2447290</v>
       </c>
       <c r="I18" s="17">
-        <v>2447290</v>
+        <v>2858287</v>
       </c>
       <c r="J18" s="17">
-        <v>2858287</v>
+        <v>3876474</v>
       </c>
       <c r="K18" s="17">
-        <v>3876474</v>
+        <v>3958746</v>
       </c>
       <c r="L18" s="17">
-        <v>3958746</v>
+        <v>4121232</v>
       </c>
       <c r="M18" s="17">
-        <v>4121232</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>4687523</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>7162</v>
+        <v>7863</v>
       </c>
       <c r="E19" s="11">
-        <v>7863</v>
+        <v>6911</v>
       </c>
       <c r="F19" s="11">
-        <v>6911</v>
+        <v>5417</v>
       </c>
       <c r="G19" s="11">
-        <v>5417</v>
+        <v>4141</v>
       </c>
       <c r="H19" s="11">
-        <v>4141</v>
+        <v>3950</v>
       </c>
       <c r="I19" s="11">
-        <v>3950</v>
+        <v>12425</v>
       </c>
       <c r="J19" s="11">
-        <v>12425</v>
+        <v>13450</v>
       </c>
       <c r="K19" s="11">
-        <v>13450</v>
+        <v>15456</v>
       </c>
       <c r="L19" s="11">
-        <v>15456</v>
+        <v>18750</v>
       </c>
       <c r="M19" s="11">
-        <v>18750</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,79 +1312,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>262415</v>
+        <v>209075</v>
       </c>
       <c r="E22" s="15">
-        <v>209075</v>
+        <v>289397</v>
       </c>
       <c r="F22" s="15">
-        <v>289397</v>
+        <v>291834</v>
       </c>
       <c r="G22" s="15">
-        <v>291834</v>
+        <v>308928</v>
       </c>
       <c r="H22" s="15">
-        <v>308928</v>
+        <v>318550</v>
       </c>
       <c r="I22" s="15">
-        <v>318550</v>
+        <v>392650</v>
       </c>
       <c r="J22" s="15">
-        <v>392650</v>
+        <v>432104</v>
       </c>
       <c r="K22" s="15">
-        <v>432104</v>
+        <v>644779</v>
       </c>
       <c r="L22" s="15">
-        <v>644779</v>
+        <v>727560</v>
       </c>
       <c r="M22" s="15">
-        <v>727560</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1124594</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>3957</v>
+        <v>3041</v>
       </c>
       <c r="E23" s="11">
-        <v>3041</v>
+        <v>2767</v>
       </c>
       <c r="F23" s="11">
-        <v>2767</v>
+        <v>2476</v>
       </c>
       <c r="G23" s="11">
-        <v>2476</v>
+        <v>2240</v>
       </c>
       <c r="H23" s="11">
-        <v>2240</v>
+        <v>13341</v>
       </c>
       <c r="I23" s="11">
-        <v>13341</v>
+        <v>13063</v>
       </c>
       <c r="J23" s="11">
-        <v>13063</v>
+        <v>18831</v>
       </c>
       <c r="K23" s="11">
-        <v>18831</v>
+        <v>18553</v>
       </c>
       <c r="L23" s="11">
-        <v>18553</v>
+        <v>18955</v>
       </c>
       <c r="M23" s="11">
-        <v>18955</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>18954</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,79 +1456,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>273534</v>
+        <v>219979</v>
       </c>
       <c r="E26" s="17">
-        <v>219979</v>
+        <v>299075</v>
       </c>
       <c r="F26" s="17">
-        <v>299075</v>
+        <v>299727</v>
       </c>
       <c r="G26" s="17">
-        <v>299727</v>
+        <v>315309</v>
       </c>
       <c r="H26" s="17">
-        <v>315309</v>
+        <v>335841</v>
       </c>
       <c r="I26" s="17">
-        <v>335841</v>
+        <v>418138</v>
       </c>
       <c r="J26" s="17">
-        <v>418138</v>
+        <v>464385</v>
       </c>
       <c r="K26" s="17">
-        <v>464385</v>
+        <v>678788</v>
       </c>
       <c r="L26" s="17">
-        <v>678788</v>
+        <v>765265</v>
       </c>
       <c r="M26" s="17">
-        <v>765265</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1162142</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>1291724</v>
+        <v>1660833</v>
       </c>
       <c r="E27" s="19">
-        <v>1660833</v>
+        <v>2254873</v>
       </c>
       <c r="F27" s="19">
-        <v>2254873</v>
+        <v>2902855</v>
       </c>
       <c r="G27" s="19">
-        <v>2902855</v>
+        <v>2563145</v>
       </c>
       <c r="H27" s="19">
-        <v>2563145</v>
+        <v>2783131</v>
       </c>
       <c r="I27" s="19">
-        <v>2783131</v>
+        <v>3276425</v>
       </c>
       <c r="J27" s="19">
-        <v>3276425</v>
+        <v>4340859</v>
       </c>
       <c r="K27" s="19">
-        <v>4340859</v>
+        <v>4637534</v>
       </c>
       <c r="L27" s="19">
-        <v>4637534</v>
+        <v>4886497</v>
       </c>
       <c r="M27" s="19">
-        <v>4886497</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5849665</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,43 +1544,43 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>148205</v>
+        <v>145966</v>
       </c>
       <c r="E29" s="15">
-        <v>145966</v>
+        <v>380308</v>
       </c>
       <c r="F29" s="15">
-        <v>380308</v>
+        <v>439917</v>
       </c>
       <c r="G29" s="15">
-        <v>439917</v>
+        <v>326111</v>
       </c>
       <c r="H29" s="15">
-        <v>326111</v>
+        <v>529984</v>
       </c>
       <c r="I29" s="15">
-        <v>529984</v>
+        <v>319318</v>
       </c>
       <c r="J29" s="15">
-        <v>319318</v>
+        <v>316916</v>
       </c>
       <c r="K29" s="15">
-        <v>316916</v>
+        <v>400654</v>
       </c>
       <c r="L29" s="15">
-        <v>400654</v>
+        <v>324556</v>
       </c>
       <c r="M29" s="15">
-        <v>324556</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>409860</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,151 +1616,151 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>142778</v>
+        <v>296653</v>
       </c>
       <c r="E31" s="15">
-        <v>296653</v>
+        <v>212914</v>
       </c>
       <c r="F31" s="15">
-        <v>212914</v>
+        <v>457541</v>
       </c>
       <c r="G31" s="15">
-        <v>457541</v>
+        <v>140522</v>
       </c>
       <c r="H31" s="15">
-        <v>140522</v>
+        <v>214699</v>
       </c>
       <c r="I31" s="15">
-        <v>214699</v>
+        <v>353390</v>
       </c>
       <c r="J31" s="15">
-        <v>353390</v>
+        <v>733149</v>
       </c>
       <c r="K31" s="15">
-        <v>733149</v>
+        <v>556534</v>
       </c>
       <c r="L31" s="15">
-        <v>556534</v>
+        <v>401097</v>
       </c>
       <c r="M31" s="15">
-        <v>401097</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>709488</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>76557</v>
+        <v>149042</v>
       </c>
       <c r="E32" s="11">
-        <v>149042</v>
+        <v>232281</v>
       </c>
       <c r="F32" s="11">
-        <v>232281</v>
+        <v>322135</v>
       </c>
       <c r="G32" s="11">
-        <v>322135</v>
+        <v>219411</v>
       </c>
       <c r="H32" s="11">
-        <v>219411</v>
+        <v>344876</v>
       </c>
       <c r="I32" s="11">
-        <v>344876</v>
+        <v>357423</v>
       </c>
       <c r="J32" s="11">
-        <v>357423</v>
+        <v>478428</v>
       </c>
       <c r="K32" s="11">
-        <v>478428</v>
+        <v>377868</v>
       </c>
       <c r="L32" s="11">
-        <v>377868</v>
+        <v>554527</v>
       </c>
       <c r="M32" s="11">
-        <v>554527</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>613522</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>276003</v>
+        <v>34815</v>
       </c>
       <c r="E33" s="15">
-        <v>34815</v>
+        <v>29601</v>
       </c>
       <c r="F33" s="15">
-        <v>29601</v>
+        <v>738077</v>
       </c>
       <c r="G33" s="15">
         <v>738077</v>
       </c>
       <c r="H33" s="15">
-        <v>738077</v>
+        <v>52659</v>
       </c>
       <c r="I33" s="15">
-        <v>52659</v>
+        <v>40928</v>
       </c>
       <c r="J33" s="15">
-        <v>40928</v>
+        <v>1363531</v>
       </c>
       <c r="K33" s="15">
-        <v>1363531</v>
+        <v>1111195</v>
       </c>
       <c r="L33" s="15">
-        <v>1111195</v>
+        <v>531692</v>
       </c>
       <c r="M33" s="15">
-        <v>531692</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>75733</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>129733</v>
+        <v>271277</v>
       </c>
       <c r="E34" s="11">
-        <v>271277</v>
+        <v>326209</v>
       </c>
       <c r="F34" s="11">
-        <v>326209</v>
+        <v>272157</v>
       </c>
       <c r="G34" s="11">
-        <v>272157</v>
+        <v>147034</v>
       </c>
       <c r="H34" s="11">
-        <v>147034</v>
+        <v>200917</v>
       </c>
       <c r="I34" s="11">
-        <v>200917</v>
+        <v>355694</v>
       </c>
       <c r="J34" s="11">
-        <v>355694</v>
+        <v>225755</v>
       </c>
       <c r="K34" s="11">
-        <v>225755</v>
+        <v>101585</v>
       </c>
       <c r="L34" s="11">
-        <v>101585</v>
+        <v>408224</v>
       </c>
       <c r="M34" s="11">
-        <v>408224</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>695937</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1768,7 +1769,7 @@
         <v>2665</v>
       </c>
       <c r="E35" s="15">
-        <v>2665</v>
+        <v>2210</v>
       </c>
       <c r="F35" s="15">
         <v>2210</v>
@@ -1780,7 +1781,7 @@
         <v>2210</v>
       </c>
       <c r="I35" s="15">
-        <v>2210</v>
+        <v>1603</v>
       </c>
       <c r="J35" s="15">
         <v>1603</v>
@@ -1792,10 +1793,10 @@
         <v>1603</v>
       </c>
       <c r="M35" s="15">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,79 +1832,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>775941</v>
+        <v>900418</v>
       </c>
       <c r="E37" s="17">
-        <v>900418</v>
+        <v>1183523</v>
       </c>
       <c r="F37" s="17">
-        <v>1183523</v>
+        <v>2232037</v>
       </c>
       <c r="G37" s="17">
-        <v>2232037</v>
+        <v>1573365</v>
       </c>
       <c r="H37" s="17">
-        <v>1573365</v>
+        <v>1345345</v>
       </c>
       <c r="I37" s="17">
-        <v>1345345</v>
+        <v>1428356</v>
       </c>
       <c r="J37" s="17">
-        <v>1428356</v>
+        <v>3119382</v>
       </c>
       <c r="K37" s="17">
-        <v>3119382</v>
+        <v>2549439</v>
       </c>
       <c r="L37" s="17">
-        <v>2549439</v>
+        <v>2221699</v>
       </c>
       <c r="M37" s="17">
-        <v>2221699</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2505574</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>8369</v>
+        <v>0</v>
       </c>
       <c r="E38" s="11">
-        <v>0</v>
+        <v>10349</v>
       </c>
       <c r="F38" s="11">
-        <v>10349</v>
+        <v>10310</v>
       </c>
       <c r="G38" s="11">
-        <v>10310</v>
+        <v>7761</v>
       </c>
       <c r="H38" s="11">
-        <v>7761</v>
+        <v>8552</v>
       </c>
       <c r="I38" s="11">
-        <v>8552</v>
+        <v>8566</v>
       </c>
       <c r="J38" s="11">
-        <v>8566</v>
+        <v>9251</v>
       </c>
       <c r="K38" s="11">
-        <v>9251</v>
+        <v>10083</v>
       </c>
       <c r="L38" s="11">
-        <v>10083</v>
+        <v>10944</v>
       </c>
       <c r="M38" s="11">
-        <v>10944</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>10903</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,115 +1976,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>42897</v>
+        <v>42062</v>
       </c>
       <c r="E41" s="15">
-        <v>42062</v>
+        <v>40394</v>
       </c>
       <c r="F41" s="15">
-        <v>40394</v>
+        <v>56086</v>
       </c>
       <c r="G41" s="15">
-        <v>56086</v>
+        <v>57086</v>
       </c>
       <c r="H41" s="15">
-        <v>57086</v>
+        <v>58751</v>
       </c>
       <c r="I41" s="15">
-        <v>58751</v>
+        <v>59970</v>
       </c>
       <c r="J41" s="15">
-        <v>59970</v>
+        <v>84168</v>
       </c>
       <c r="K41" s="15">
-        <v>84168</v>
+        <v>90030</v>
       </c>
       <c r="L41" s="15">
-        <v>90030</v>
+        <v>91919</v>
       </c>
       <c r="M41" s="15">
-        <v>91919</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>91570</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>51266</v>
+        <v>42062</v>
       </c>
       <c r="E42" s="19">
-        <v>42062</v>
+        <v>50743</v>
       </c>
       <c r="F42" s="19">
-        <v>50743</v>
+        <v>66396</v>
       </c>
       <c r="G42" s="19">
-        <v>66396</v>
+        <v>64847</v>
       </c>
       <c r="H42" s="19">
-        <v>64847</v>
+        <v>67303</v>
       </c>
       <c r="I42" s="19">
-        <v>67303</v>
+        <v>68536</v>
       </c>
       <c r="J42" s="19">
-        <v>68536</v>
+        <v>93419</v>
       </c>
       <c r="K42" s="19">
-        <v>93419</v>
+        <v>100113</v>
       </c>
       <c r="L42" s="19">
-        <v>100113</v>
+        <v>102863</v>
       </c>
       <c r="M42" s="19">
-        <v>102863</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>102473</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>827207</v>
+        <v>942480</v>
       </c>
       <c r="E43" s="17">
-        <v>942480</v>
+        <v>1234266</v>
       </c>
       <c r="F43" s="17">
-        <v>1234266</v>
+        <v>2298433</v>
       </c>
       <c r="G43" s="17">
-        <v>2298433</v>
+        <v>1638212</v>
       </c>
       <c r="H43" s="17">
-        <v>1638212</v>
+        <v>1412648</v>
       </c>
       <c r="I43" s="17">
-        <v>1412648</v>
+        <v>1496892</v>
       </c>
       <c r="J43" s="17">
-        <v>1496892</v>
+        <v>3212801</v>
       </c>
       <c r="K43" s="17">
-        <v>3212801</v>
+        <v>2649552</v>
       </c>
       <c r="L43" s="17">
-        <v>2649552</v>
+        <v>2324562</v>
       </c>
       <c r="M43" s="17">
-        <v>2324562</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2608047</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>200000</v>
       </c>
       <c r="I45" s="15">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="J45" s="15">
         <v>300000</v>
@@ -2135,7 +2136,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2180,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="E47" s="15">
-        <v>0</v>
+        <v>33058</v>
       </c>
       <c r="F47" s="15">
         <v>33058</v>
       </c>
       <c r="G47" s="15">
-        <v>33058</v>
+        <v>93570</v>
       </c>
       <c r="H47" s="15">
-        <v>93570</v>
+        <v>100000</v>
       </c>
       <c r="I47" s="15">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="J47" s="15">
         <v>0</v>
@@ -2207,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2216,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <v>0</v>
+        <v>-22603</v>
       </c>
       <c r="F48" s="11">
-        <v>-22603</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
-        <v>0</v>
+        <v>-38521</v>
       </c>
       <c r="H48" s="11">
         <v>-38521</v>
@@ -2234,16 +2235,16 @@
         <v>-38522</v>
       </c>
       <c r="K48" s="11">
+        <v>-38521</v>
+      </c>
+      <c r="L48" s="11">
         <v>-38522</v>
       </c>
-      <c r="L48" s="11">
+      <c r="M48" s="11">
         <v>-38521</v>
       </c>
-      <c r="M48" s="11">
-        <v>-38522</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2252,34 +2253,34 @@
         <v>0</v>
       </c>
       <c r="E49" s="15">
-        <v>0</v>
+        <v>2510</v>
       </c>
       <c r="F49" s="15">
-        <v>2510</v>
+        <v>0</v>
       </c>
       <c r="G49" s="15">
-        <v>0</v>
+        <v>10095</v>
       </c>
       <c r="H49" s="15">
         <v>10095</v>
       </c>
       <c r="I49" s="15">
-        <v>10095</v>
+        <v>11243</v>
       </c>
       <c r="J49" s="15">
-        <v>11243</v>
+        <v>20541</v>
       </c>
       <c r="K49" s="15">
-        <v>20541</v>
+        <v>24144</v>
       </c>
       <c r="L49" s="15">
-        <v>24144</v>
+        <v>30981</v>
       </c>
       <c r="M49" s="15">
-        <v>30981</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>40309</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>20000</v>
       </c>
       <c r="I50" s="11">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="J50" s="11">
         <v>30000</v>
@@ -2315,7 +2316,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,115 +2496,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>244517</v>
+        <v>498353</v>
       </c>
       <c r="E56" s="11">
-        <v>498353</v>
+        <v>787642</v>
       </c>
       <c r="F56" s="11">
-        <v>787642</v>
+        <v>351364</v>
       </c>
       <c r="G56" s="11">
-        <v>351364</v>
+        <v>639789</v>
       </c>
       <c r="H56" s="11">
-        <v>639789</v>
+        <v>1078909</v>
       </c>
       <c r="I56" s="11">
-        <v>1078909</v>
+        <v>1476811</v>
       </c>
       <c r="J56" s="11">
-        <v>1476812</v>
+        <v>816039</v>
       </c>
       <c r="K56" s="11">
-        <v>816039</v>
+        <v>1672359</v>
       </c>
       <c r="L56" s="11">
-        <v>1672359</v>
+        <v>2239476</v>
       </c>
       <c r="M56" s="11">
-        <v>2239476</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2909830</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>464517</v>
+        <v>718353</v>
       </c>
       <c r="E57" s="17">
-        <v>718353</v>
+        <v>1020607</v>
       </c>
       <c r="F57" s="17">
-        <v>1020607</v>
+        <v>604422</v>
       </c>
       <c r="G57" s="17">
-        <v>604422</v>
+        <v>924933</v>
       </c>
       <c r="H57" s="17">
-        <v>924933</v>
+        <v>1370483</v>
       </c>
       <c r="I57" s="17">
-        <v>1370483</v>
+        <v>1779533</v>
       </c>
       <c r="J57" s="17">
-        <v>1779533</v>
+        <v>1128058</v>
       </c>
       <c r="K57" s="17">
-        <v>1128058</v>
+        <v>1987982</v>
       </c>
       <c r="L57" s="17">
-        <v>1987982</v>
+        <v>2561935</v>
       </c>
       <c r="M57" s="17">
-        <v>2561935</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+        <v>3241618</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>1291724</v>
+        <v>1660833</v>
       </c>
       <c r="E58" s="19">
-        <v>1660833</v>
+        <v>2254873</v>
       </c>
       <c r="F58" s="19">
-        <v>2254873</v>
+        <v>2902855</v>
       </c>
       <c r="G58" s="19">
-        <v>2902855</v>
+        <v>2563145</v>
       </c>
       <c r="H58" s="19">
-        <v>2563145</v>
+        <v>2783131</v>
       </c>
       <c r="I58" s="19">
-        <v>2783131</v>
+        <v>3276425</v>
       </c>
       <c r="J58" s="19">
-        <v>3276425</v>
+        <v>4340859</v>
       </c>
       <c r="K58" s="19">
-        <v>4340859</v>
+        <v>4637534</v>
       </c>
       <c r="L58" s="19">
-        <v>4637534</v>
+        <v>4886497</v>
       </c>
       <c r="M58" s="19">
-        <v>4886497</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5849665</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/darou/dekapsul/balancesheet/quarterly.xlsx
+++ b/database/industries/darou/dekapsul/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\dekapsul\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\darou\dekapsul\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB782E1-8812-4122-B0D8-0ACFEAEA6CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A756D78-976C-4555-81CB-5A1460EC1E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="420" windowWidth="21600" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2023</t>
+    <t>Copyright @2015 - 2024</t>
   </si>
   <si>
     <t>دکپسول-تولید ژلاتین کپسول ایران</t>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,36 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-02-01 (9)</t>
+  </si>
+  <si>
+    <t>1398-04-30</t>
+  </si>
+  <si>
+    <t>1398-08-14 (2)</t>
+  </si>
+  <si>
+    <t>1398-10-30</t>
+  </si>
+  <si>
+    <t>1400-02-01 (8)</t>
+  </si>
+  <si>
+    <t>1399-04-30</t>
+  </si>
+  <si>
+    <t>1399-08-20 (2)</t>
+  </si>
+  <si>
     <t>1399-10-30</t>
   </si>
   <si>
@@ -97,7 +148,13 @@
     <t>1401-10-28</t>
   </si>
   <si>
-    <t>1402-02-06 (2)</t>
+    <t>1402-08-16 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-29</t>
+  </si>
+  <si>
+    <t>1402-08-16 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -106,6 +163,9 @@
     <t>موجودی نقد</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>سرمایه گذاری کوتاه مدت</t>
   </si>
   <si>
@@ -140,9 +200,6 @@
   </si>
   <si>
     <t>پیش پرداخت های سرمایه ای</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>سایر دارایی ها</t>
@@ -728,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,9 +799,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,8 +819,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,8 +845,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,8 +871,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,8 +895,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,8 +921,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,8 +947,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,8 +971,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,44 +1017,102 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,10 +1125,20 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -951,194 +1151,354 @@
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15">
+      <c r="D12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15">
+        <v>144536</v>
+      </c>
+      <c r="F12" s="15">
+        <v>176881</v>
+      </c>
+      <c r="G12" s="15">
+        <v>83350</v>
+      </c>
+      <c r="H12" s="15">
+        <v>60126</v>
+      </c>
+      <c r="I12" s="15">
+        <v>171342</v>
+      </c>
+      <c r="J12" s="15">
+        <v>98047</v>
+      </c>
+      <c r="K12" s="15">
+        <v>145972</v>
+      </c>
+      <c r="L12" s="15">
         <v>138320</v>
       </c>
-      <c r="E12" s="15">
+      <c r="M12" s="15">
         <v>233344</v>
       </c>
-      <c r="F12" s="15">
+      <c r="N12" s="15">
         <v>256927</v>
       </c>
-      <c r="G12" s="15">
+      <c r="O12" s="15">
         <v>494651</v>
       </c>
-      <c r="H12" s="15">
+      <c r="P12" s="15">
         <v>527854</v>
       </c>
-      <c r="I12" s="15">
+      <c r="Q12" s="15">
         <v>663870</v>
       </c>
-      <c r="J12" s="15">
+      <c r="R12" s="15">
         <v>994474</v>
       </c>
-      <c r="K12" s="15">
+      <c r="S12" s="15">
         <v>715418</v>
       </c>
-      <c r="L12" s="15">
+      <c r="T12" s="15">
         <v>783142</v>
       </c>
-      <c r="M12" s="15">
+      <c r="U12" s="15">
         <v>1268292</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="15">
+        <v>1713222</v>
+      </c>
+      <c r="W12" s="15">
+        <v>1764902</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11">
         <v>33000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="F13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="G13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="H13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="I13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="J13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="L13" s="11">
+        <v>33000</v>
+      </c>
+      <c r="M13" s="11">
         <v>34500</v>
       </c>
-      <c r="F13" s="11">
+      <c r="N13" s="11">
         <v>55604</v>
       </c>
-      <c r="G13" s="11">
+      <c r="O13" s="11">
         <v>34500</v>
       </c>
-      <c r="H13" s="11">
+      <c r="P13" s="11">
         <v>34500</v>
       </c>
-      <c r="I13" s="11">
+      <c r="Q13" s="11">
         <v>34500</v>
       </c>
-      <c r="J13" s="11">
+      <c r="R13" s="11">
         <v>34500</v>
       </c>
-      <c r="K13" s="11">
+      <c r="S13" s="11">
         <v>34500</v>
       </c>
-      <c r="L13" s="11">
+      <c r="T13" s="11">
         <v>34500</v>
       </c>
-      <c r="M13" s="11">
+      <c r="U13" s="11">
         <v>27003</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="11">
+        <v>0</v>
+      </c>
+      <c r="W13" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15">
+      <c r="D14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="15">
+        <v>230460</v>
+      </c>
+      <c r="F14" s="15">
+        <v>267943</v>
+      </c>
+      <c r="G14" s="15">
+        <v>196622</v>
+      </c>
+      <c r="H14" s="15">
+        <v>209786</v>
+      </c>
+      <c r="I14" s="15">
+        <v>220318</v>
+      </c>
+      <c r="J14" s="15">
+        <v>281336</v>
+      </c>
+      <c r="K14" s="15">
+        <v>309308</v>
+      </c>
+      <c r="L14" s="15">
         <v>405629</v>
       </c>
-      <c r="E14" s="15">
+      <c r="M14" s="15">
         <v>280799</v>
       </c>
-      <c r="F14" s="15">
+      <c r="N14" s="15">
         <v>425707</v>
       </c>
-      <c r="G14" s="15">
+      <c r="O14" s="15">
         <v>307729</v>
       </c>
-      <c r="H14" s="15">
+      <c r="P14" s="15">
         <v>493259</v>
       </c>
-      <c r="I14" s="15">
+      <c r="Q14" s="15">
         <v>419745</v>
       </c>
-      <c r="J14" s="15">
+      <c r="R14" s="15">
         <v>1159348</v>
       </c>
-      <c r="K14" s="15">
+      <c r="S14" s="15">
         <v>1242668</v>
       </c>
-      <c r="L14" s="15">
+      <c r="T14" s="15">
         <v>1517805</v>
       </c>
-      <c r="M14" s="15">
+      <c r="U14" s="15">
         <v>1010035</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="15">
+        <v>1480698</v>
+      </c>
+      <c r="W14" s="15">
+        <v>1819661</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="11">
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11">
+        <v>150318</v>
+      </c>
+      <c r="F15" s="11">
+        <v>151772</v>
+      </c>
+      <c r="G15" s="11">
+        <v>199348</v>
+      </c>
+      <c r="H15" s="11">
+        <v>118320</v>
+      </c>
+      <c r="I15" s="11">
+        <v>228685</v>
+      </c>
+      <c r="J15" s="11">
+        <v>243784</v>
+      </c>
+      <c r="K15" s="11">
+        <v>154358</v>
+      </c>
+      <c r="L15" s="11">
         <v>437704</v>
       </c>
-      <c r="E15" s="11">
+      <c r="M15" s="11">
         <v>977608</v>
       </c>
-      <c r="F15" s="11">
+      <c r="N15" s="11">
         <v>815197</v>
       </c>
-      <c r="G15" s="11">
+      <c r="O15" s="11">
         <v>1363122</v>
       </c>
-      <c r="H15" s="11">
+      <c r="P15" s="11">
         <v>1066251</v>
       </c>
-      <c r="I15" s="11">
+      <c r="Q15" s="11">
         <v>1137201</v>
       </c>
-      <c r="J15" s="11">
+      <c r="R15" s="11">
         <v>956424</v>
       </c>
-      <c r="K15" s="11">
+      <c r="S15" s="11">
         <v>1543865</v>
       </c>
-      <c r="L15" s="11">
+      <c r="T15" s="11">
         <v>1168291</v>
       </c>
-      <c r="M15" s="11">
+      <c r="U15" s="11">
         <v>1516453</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V15" s="11">
+        <v>1781640</v>
+      </c>
+      <c r="W15" s="11">
+        <v>2217734</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15">
+      <c r="D16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="15">
+        <v>68778</v>
+      </c>
+      <c r="F16" s="15">
+        <v>115743</v>
+      </c>
+      <c r="G16" s="15">
+        <v>51745</v>
+      </c>
+      <c r="H16" s="15">
+        <v>122464</v>
+      </c>
+      <c r="I16" s="15">
+        <v>96313</v>
+      </c>
+      <c r="J16" s="15">
+        <v>187515</v>
+      </c>
+      <c r="K16" s="15">
+        <v>375552</v>
+      </c>
+      <c r="L16" s="15">
         <v>426201</v>
       </c>
-      <c r="E16" s="15">
+      <c r="M16" s="15">
         <v>429547</v>
       </c>
-      <c r="F16" s="15">
+      <c r="N16" s="15">
         <v>1049693</v>
       </c>
-      <c r="G16" s="15">
+      <c r="O16" s="15">
         <v>47834</v>
       </c>
-      <c r="H16" s="15">
+      <c r="P16" s="15">
         <v>325426</v>
       </c>
-      <c r="I16" s="15">
+      <c r="Q16" s="15">
         <v>602971</v>
       </c>
-      <c r="J16" s="15">
+      <c r="R16" s="15">
         <v>731728</v>
       </c>
-      <c r="K16" s="15">
+      <c r="S16" s="15">
         <v>422295</v>
       </c>
-      <c r="L16" s="15">
+      <c r="T16" s="15">
         <v>617494</v>
       </c>
-      <c r="M16" s="15">
+      <c r="U16" s="15">
         <v>865740</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="15">
+        <v>832339</v>
+      </c>
+      <c r="W16" s="15">
+        <v>491368</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>0</v>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="11">
         <v>0</v>
@@ -1167,86 +1527,176 @@
       <c r="M17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="11">
+        <v>0</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="11">
+        <v>0</v>
+      </c>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C18" s="17"/>
-      <c r="D18" s="17">
+      <c r="D18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="17">
+        <v>627092</v>
+      </c>
+      <c r="F18" s="17">
+        <v>745339</v>
+      </c>
+      <c r="G18" s="17">
+        <v>564065</v>
+      </c>
+      <c r="H18" s="17">
+        <v>543696</v>
+      </c>
+      <c r="I18" s="17">
+        <v>749658</v>
+      </c>
+      <c r="J18" s="17">
+        <v>843682</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1018190</v>
+      </c>
+      <c r="L18" s="17">
         <v>1440854</v>
       </c>
-      <c r="E18" s="17">
+      <c r="M18" s="17">
         <v>1955798</v>
       </c>
-      <c r="F18" s="17">
+      <c r="N18" s="17">
         <v>2603128</v>
       </c>
-      <c r="G18" s="17">
+      <c r="O18" s="17">
         <v>2247836</v>
       </c>
-      <c r="H18" s="17">
+      <c r="P18" s="17">
         <v>2447290</v>
       </c>
-      <c r="I18" s="17">
+      <c r="Q18" s="17">
         <v>2858287</v>
       </c>
-      <c r="J18" s="17">
+      <c r="R18" s="17">
         <v>3876474</v>
       </c>
-      <c r="K18" s="17">
+      <c r="S18" s="17">
         <v>3958746</v>
       </c>
-      <c r="L18" s="17">
+      <c r="T18" s="17">
         <v>4121232</v>
       </c>
-      <c r="M18" s="17">
+      <c r="U18" s="17">
         <v>4687523</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="17">
+        <v>5807899</v>
+      </c>
+      <c r="W18" s="17">
+        <v>6293668</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C19" s="11"/>
-      <c r="D19" s="11">
+      <c r="D19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="11">
+        <v>4273</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4478</v>
+      </c>
+      <c r="G19" s="11">
+        <v>14061</v>
+      </c>
+      <c r="H19" s="11">
+        <v>13487</v>
+      </c>
+      <c r="I19" s="11">
+        <v>8798</v>
+      </c>
+      <c r="J19" s="11">
         <v>7863</v>
       </c>
-      <c r="E19" s="11">
+      <c r="K19" s="11">
+        <v>7162</v>
+      </c>
+      <c r="L19" s="11">
+        <v>7863</v>
+      </c>
+      <c r="M19" s="11">
         <v>6911</v>
       </c>
-      <c r="F19" s="11">
+      <c r="N19" s="11">
         <v>5417</v>
       </c>
-      <c r="G19" s="11">
+      <c r="O19" s="11">
         <v>4141</v>
       </c>
-      <c r="H19" s="11">
+      <c r="P19" s="11">
         <v>3950</v>
       </c>
-      <c r="I19" s="11">
+      <c r="Q19" s="11">
         <v>12425</v>
       </c>
-      <c r="J19" s="11">
+      <c r="R19" s="11">
         <v>13450</v>
       </c>
-      <c r="K19" s="11">
+      <c r="S19" s="11">
         <v>15456</v>
       </c>
-      <c r="L19" s="11">
+      <c r="T19" s="11">
         <v>18750</v>
       </c>
-      <c r="M19" s="11">
+      <c r="U19" s="11">
         <v>18594</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="11">
+        <v>18750</v>
+      </c>
+      <c r="W19" s="11">
+        <v>18652</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15">
-        <v>0</v>
+      <c r="D20" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -1275,14 +1725,44 @@
       <c r="M20" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="11">
-        <v>0</v>
+      <c r="D21" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="11">
         <v>0</v>
@@ -1311,122 +1791,242 @@
       <c r="M21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="11">
+        <v>0</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="11">
+        <v>0</v>
+      </c>
+      <c r="W21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="15">
+      <c r="D22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="15">
+        <v>239431</v>
+      </c>
+      <c r="F22" s="15">
+        <v>233614</v>
+      </c>
+      <c r="G22" s="15">
+        <v>231765</v>
+      </c>
+      <c r="H22" s="15">
+        <v>249747</v>
+      </c>
+      <c r="I22" s="15">
+        <v>261898</v>
+      </c>
+      <c r="J22" s="15">
+        <v>213381</v>
+      </c>
+      <c r="K22" s="15">
+        <v>262415</v>
+      </c>
+      <c r="L22" s="15">
         <v>209075</v>
       </c>
-      <c r="E22" s="15">
+      <c r="M22" s="15">
         <v>289397</v>
       </c>
-      <c r="F22" s="15">
+      <c r="N22" s="15">
         <v>291834</v>
       </c>
-      <c r="G22" s="15">
+      <c r="O22" s="15">
         <v>308928</v>
       </c>
-      <c r="H22" s="15">
+      <c r="P22" s="15">
         <v>318550</v>
       </c>
-      <c r="I22" s="15">
+      <c r="Q22" s="15">
         <v>392650</v>
       </c>
-      <c r="J22" s="15">
+      <c r="R22" s="15">
         <v>432104</v>
       </c>
-      <c r="K22" s="15">
+      <c r="S22" s="15">
         <v>644779</v>
       </c>
-      <c r="L22" s="15">
+      <c r="T22" s="15">
         <v>727560</v>
       </c>
-      <c r="M22" s="15">
+      <c r="U22" s="15">
         <v>1124594</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="15">
+        <v>1186035</v>
+      </c>
+      <c r="W22" s="15">
+        <v>1284719</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11"/>
-      <c r="D23" s="11">
+      <c r="D23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="11">
+        <v>991</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1233</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2606</v>
+      </c>
+      <c r="I23" s="11">
+        <v>4512</v>
+      </c>
+      <c r="J23" s="11">
+        <v>3498</v>
+      </c>
+      <c r="K23" s="11">
+        <v>3957</v>
+      </c>
+      <c r="L23" s="11">
         <v>3041</v>
       </c>
-      <c r="E23" s="11">
+      <c r="M23" s="11">
         <v>2767</v>
       </c>
-      <c r="F23" s="11">
+      <c r="N23" s="11">
         <v>2476</v>
       </c>
-      <c r="G23" s="11">
+      <c r="O23" s="11">
         <v>2240</v>
       </c>
-      <c r="H23" s="11">
+      <c r="P23" s="11">
         <v>13341</v>
       </c>
-      <c r="I23" s="11">
+      <c r="Q23" s="11">
         <v>13063</v>
       </c>
-      <c r="J23" s="11">
+      <c r="R23" s="11">
         <v>18831</v>
       </c>
-      <c r="K23" s="11">
+      <c r="S23" s="11">
         <v>18553</v>
       </c>
-      <c r="L23" s="11">
+      <c r="T23" s="11">
         <v>18955</v>
       </c>
-      <c r="M23" s="11">
+      <c r="U23" s="11">
         <v>18954</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V23" s="11">
+        <v>18954</v>
+      </c>
+      <c r="W23" s="11">
+        <v>19424</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11"/>
-      <c r="D25" s="11">
-        <v>0</v>
+      <c r="D25" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="11">
         <v>0</v>
@@ -1455,82 +2055,172 @@
       <c r="M25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0</v>
+      </c>
+      <c r="V25" s="11">
+        <v>0</v>
+      </c>
+      <c r="W25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C26" s="17"/>
-      <c r="D26" s="17">
+      <c r="D26" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="17">
+        <v>244704</v>
+      </c>
+      <c r="F26" s="17">
+        <v>239083</v>
+      </c>
+      <c r="G26" s="17">
+        <v>247059</v>
+      </c>
+      <c r="H26" s="17">
+        <v>265840</v>
+      </c>
+      <c r="I26" s="17">
+        <v>275208</v>
+      </c>
+      <c r="J26" s="17">
+        <v>224742</v>
+      </c>
+      <c r="K26" s="17">
+        <v>273534</v>
+      </c>
+      <c r="L26" s="17">
         <v>219979</v>
       </c>
-      <c r="E26" s="17">
+      <c r="M26" s="17">
         <v>299075</v>
       </c>
-      <c r="F26" s="17">
+      <c r="N26" s="17">
         <v>299727</v>
       </c>
-      <c r="G26" s="17">
+      <c r="O26" s="17">
         <v>315309</v>
       </c>
-      <c r="H26" s="17">
+      <c r="P26" s="17">
         <v>335841</v>
       </c>
-      <c r="I26" s="17">
+      <c r="Q26" s="17">
         <v>418138</v>
       </c>
-      <c r="J26" s="17">
+      <c r="R26" s="17">
         <v>464385</v>
       </c>
-      <c r="K26" s="17">
+      <c r="S26" s="17">
         <v>678788</v>
       </c>
-      <c r="L26" s="17">
+      <c r="T26" s="17">
         <v>765265</v>
       </c>
-      <c r="M26" s="17">
+      <c r="U26" s="17">
         <v>1162142</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="17">
+        <v>1223739</v>
+      </c>
+      <c r="W26" s="17">
+        <v>1322795</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="D27" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="19">
+        <v>871796</v>
+      </c>
+      <c r="F27" s="19">
+        <v>984422</v>
+      </c>
+      <c r="G27" s="19">
+        <v>811124</v>
+      </c>
+      <c r="H27" s="19">
+        <v>809536</v>
+      </c>
+      <c r="I27" s="19">
+        <v>1024866</v>
+      </c>
+      <c r="J27" s="19">
+        <v>1068424</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1291724</v>
+      </c>
+      <c r="L27" s="19">
         <v>1660833</v>
       </c>
-      <c r="E27" s="19">
+      <c r="M27" s="19">
         <v>2254873</v>
       </c>
-      <c r="F27" s="19">
+      <c r="N27" s="19">
         <v>2902855</v>
       </c>
-      <c r="G27" s="19">
+      <c r="O27" s="19">
         <v>2563145</v>
       </c>
-      <c r="H27" s="19">
+      <c r="P27" s="19">
         <v>2783131</v>
       </c>
-      <c r="I27" s="19">
+      <c r="Q27" s="19">
         <v>3276425</v>
       </c>
-      <c r="J27" s="19">
+      <c r="R27" s="19">
         <v>4340859</v>
       </c>
-      <c r="K27" s="19">
+      <c r="S27" s="19">
         <v>4637534</v>
       </c>
-      <c r="L27" s="19">
+      <c r="T27" s="19">
         <v>4886497</v>
       </c>
-      <c r="M27" s="19">
+      <c r="U27" s="19">
         <v>5849665</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V27" s="19">
+        <v>7031638</v>
+      </c>
+      <c r="W27" s="19">
+        <v>7616463</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1543,266 +2233,486 @@
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="D29" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="15">
+        <v>109400</v>
+      </c>
+      <c r="F29" s="15">
+        <v>336802</v>
+      </c>
+      <c r="G29" s="15">
+        <v>206038</v>
+      </c>
+      <c r="H29" s="15">
+        <v>147226</v>
+      </c>
+      <c r="I29" s="15">
+        <v>121489</v>
+      </c>
+      <c r="J29" s="15">
+        <v>86867</v>
+      </c>
+      <c r="K29" s="15">
+        <v>148205</v>
+      </c>
+      <c r="L29" s="15">
         <v>145966</v>
       </c>
-      <c r="E29" s="15">
+      <c r="M29" s="15">
         <v>380308</v>
       </c>
-      <c r="F29" s="15">
+      <c r="N29" s="15">
         <v>439917</v>
       </c>
-      <c r="G29" s="15">
+      <c r="O29" s="15">
         <v>326111</v>
       </c>
-      <c r="H29" s="15">
+      <c r="P29" s="15">
         <v>529984</v>
       </c>
-      <c r="I29" s="15">
+      <c r="Q29" s="15">
         <v>319318</v>
       </c>
-      <c r="J29" s="15">
+      <c r="R29" s="15">
         <v>316916</v>
       </c>
-      <c r="K29" s="15">
+      <c r="S29" s="15">
         <v>400654</v>
       </c>
-      <c r="L29" s="15">
+      <c r="T29" s="15">
         <v>324556</v>
       </c>
-      <c r="M29" s="15">
+      <c r="U29" s="15">
         <v>409860</v>
       </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V29" s="15">
+        <v>439370</v>
+      </c>
+      <c r="W29" s="15">
+        <v>605003</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V30" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="15">
+      <c r="D31" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="15">
+        <v>10985</v>
+      </c>
+      <c r="F31" s="15">
+        <v>33312</v>
+      </c>
+      <c r="G31" s="15">
+        <v>35069</v>
+      </c>
+      <c r="H31" s="15">
+        <v>68496</v>
+      </c>
+      <c r="I31" s="15">
+        <v>173265</v>
+      </c>
+      <c r="J31" s="15">
+        <v>153531</v>
+      </c>
+      <c r="K31" s="15">
+        <v>142778</v>
+      </c>
+      <c r="L31" s="15">
         <v>296653</v>
       </c>
-      <c r="E31" s="15">
+      <c r="M31" s="15">
         <v>212914</v>
       </c>
-      <c r="F31" s="15">
+      <c r="N31" s="15">
         <v>457541</v>
       </c>
-      <c r="G31" s="15">
+      <c r="O31" s="15">
         <v>140522</v>
       </c>
-      <c r="H31" s="15">
+      <c r="P31" s="15">
         <v>214699</v>
       </c>
-      <c r="I31" s="15">
+      <c r="Q31" s="15">
         <v>353390</v>
       </c>
-      <c r="J31" s="15">
+      <c r="R31" s="15">
         <v>733149</v>
       </c>
-      <c r="K31" s="15">
+      <c r="S31" s="15">
         <v>556534</v>
       </c>
-      <c r="L31" s="15">
+      <c r="T31" s="15">
         <v>401097</v>
       </c>
-      <c r="M31" s="15">
+      <c r="U31" s="15">
         <v>709488</v>
       </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V31" s="15">
+        <v>1019787</v>
+      </c>
+      <c r="W31" s="15">
+        <v>932025</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C32" s="11"/>
-      <c r="D32" s="11">
+      <c r="D32" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="11">
+        <v>61590</v>
+      </c>
+      <c r="F32" s="11">
+        <v>62460</v>
+      </c>
+      <c r="G32" s="11">
+        <v>71582</v>
+      </c>
+      <c r="H32" s="11">
+        <v>10820</v>
+      </c>
+      <c r="I32" s="11">
+        <v>70423</v>
+      </c>
+      <c r="J32" s="11">
+        <v>95763</v>
+      </c>
+      <c r="K32" s="11">
+        <v>76557</v>
+      </c>
+      <c r="L32" s="11">
         <v>149042</v>
       </c>
-      <c r="E32" s="11">
+      <c r="M32" s="11">
         <v>232281</v>
       </c>
-      <c r="F32" s="11">
+      <c r="N32" s="11">
         <v>322135</v>
       </c>
-      <c r="G32" s="11">
+      <c r="O32" s="11">
         <v>219411</v>
       </c>
-      <c r="H32" s="11">
+      <c r="P32" s="11">
         <v>344876</v>
       </c>
-      <c r="I32" s="11">
+      <c r="Q32" s="11">
         <v>357423</v>
       </c>
-      <c r="J32" s="11">
+      <c r="R32" s="11">
         <v>478428</v>
       </c>
-      <c r="K32" s="11">
+      <c r="S32" s="11">
         <v>377868</v>
       </c>
-      <c r="L32" s="11">
+      <c r="T32" s="11">
         <v>554527</v>
       </c>
-      <c r="M32" s="11">
+      <c r="U32" s="11">
         <v>613522</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V32" s="11">
+        <v>800420</v>
+      </c>
+      <c r="W32" s="11">
+        <v>547961</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="15">
+      <c r="D33" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="15">
+        <v>34000</v>
+      </c>
+      <c r="F33" s="15">
+        <v>174000</v>
+      </c>
+      <c r="G33" s="15">
+        <v>64991</v>
+      </c>
+      <c r="H33" s="15">
+        <v>64992</v>
+      </c>
+      <c r="I33" s="15">
+        <v>26076</v>
+      </c>
+      <c r="J33" s="15">
+        <v>275958</v>
+      </c>
+      <c r="K33" s="15">
+        <v>276003</v>
+      </c>
+      <c r="L33" s="15">
         <v>34815</v>
       </c>
-      <c r="E33" s="15">
+      <c r="M33" s="15">
         <v>29601</v>
       </c>
-      <c r="F33" s="15">
+      <c r="N33" s="15">
         <v>738077</v>
       </c>
-      <c r="G33" s="15">
+      <c r="O33" s="15">
         <v>738077</v>
       </c>
-      <c r="H33" s="15">
+      <c r="P33" s="15">
         <v>52659</v>
       </c>
-      <c r="I33" s="15">
+      <c r="Q33" s="15">
         <v>40928</v>
       </c>
-      <c r="J33" s="15">
+      <c r="R33" s="15">
         <v>1363531</v>
       </c>
-      <c r="K33" s="15">
+      <c r="S33" s="15">
         <v>1111195</v>
       </c>
-      <c r="L33" s="15">
+      <c r="T33" s="15">
         <v>531692</v>
       </c>
-      <c r="M33" s="15">
+      <c r="U33" s="15">
         <v>75733</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V33" s="15">
+        <v>2533352</v>
+      </c>
+      <c r="W33" s="15">
+        <v>2533197</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="11">
+      <c r="D34" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="11">
+        <v>201264</v>
+      </c>
+      <c r="F34" s="11">
+        <v>34742</v>
+      </c>
+      <c r="G34" s="11">
+        <v>24956</v>
+      </c>
+      <c r="H34" s="11">
+        <v>15624</v>
+      </c>
+      <c r="I34" s="11">
+        <v>74720</v>
+      </c>
+      <c r="J34" s="11">
+        <v>53884</v>
+      </c>
+      <c r="K34" s="11">
+        <v>129733</v>
+      </c>
+      <c r="L34" s="11">
         <v>271277</v>
       </c>
-      <c r="E34" s="11">
+      <c r="M34" s="11">
         <v>326209</v>
       </c>
-      <c r="F34" s="11">
+      <c r="N34" s="11">
         <v>272157</v>
       </c>
-      <c r="G34" s="11">
+      <c r="O34" s="11">
         <v>147034</v>
       </c>
-      <c r="H34" s="11">
+      <c r="P34" s="11">
         <v>200917</v>
       </c>
-      <c r="I34" s="11">
+      <c r="Q34" s="11">
         <v>355694</v>
       </c>
-      <c r="J34" s="11">
+      <c r="R34" s="11">
         <v>225755</v>
       </c>
-      <c r="K34" s="11">
+      <c r="S34" s="11">
         <v>101585</v>
       </c>
-      <c r="L34" s="11">
+      <c r="T34" s="11">
         <v>408224</v>
       </c>
-      <c r="M34" s="11">
+      <c r="U34" s="11">
         <v>695937</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V34" s="11">
+        <v>471785</v>
+      </c>
+      <c r="W34" s="11">
+        <v>257722</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="15">
+      <c r="D35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="15">
+        <v>3961</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>3961</v>
+      </c>
+      <c r="H35" s="15">
+        <v>3991</v>
+      </c>
+      <c r="I35" s="15">
         <v>2665</v>
       </c>
-      <c r="E35" s="15">
+      <c r="J35" s="15">
+        <v>2665</v>
+      </c>
+      <c r="K35" s="15">
+        <v>2665</v>
+      </c>
+      <c r="L35" s="15">
+        <v>2665</v>
+      </c>
+      <c r="M35" s="15">
         <v>2210</v>
       </c>
-      <c r="F35" s="15">
+      <c r="N35" s="15">
         <v>2210</v>
       </c>
-      <c r="G35" s="15">
+      <c r="O35" s="15">
         <v>2210</v>
       </c>
-      <c r="H35" s="15">
+      <c r="P35" s="15">
         <v>2210</v>
       </c>
-      <c r="I35" s="15">
+      <c r="Q35" s="15">
         <v>1603</v>
       </c>
-      <c r="J35" s="15">
+      <c r="R35" s="15">
         <v>1603</v>
       </c>
-      <c r="K35" s="15">
+      <c r="S35" s="15">
         <v>1603</v>
       </c>
-      <c r="L35" s="15">
+      <c r="T35" s="15">
         <v>1603</v>
       </c>
-      <c r="M35" s="15">
+      <c r="U35" s="15">
         <v>1034</v>
       </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V35" s="15">
+        <v>1034</v>
+      </c>
+      <c r="W35" s="15">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="11">
-        <v>0</v>
+      <c r="D36" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="11">
         <v>0</v>
@@ -1831,125 +2741,245 @@
       <c r="M36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N36" s="11">
+        <v>0</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0</v>
+      </c>
+      <c r="P36" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0</v>
+      </c>
+      <c r="R36" s="11">
+        <v>0</v>
+      </c>
+      <c r="S36" s="11">
+        <v>0</v>
+      </c>
+      <c r="T36" s="11">
+        <v>0</v>
+      </c>
+      <c r="U36" s="11">
+        <v>0</v>
+      </c>
+      <c r="V36" s="11">
+        <v>0</v>
+      </c>
+      <c r="W36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C37" s="17"/>
-      <c r="D37" s="17">
+      <c r="D37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="17">
+        <v>421200</v>
+      </c>
+      <c r="F37" s="17">
+        <v>641316</v>
+      </c>
+      <c r="G37" s="17">
+        <v>406597</v>
+      </c>
+      <c r="H37" s="17">
+        <v>311149</v>
+      </c>
+      <c r="I37" s="17">
+        <v>468638</v>
+      </c>
+      <c r="J37" s="17">
+        <v>668668</v>
+      </c>
+      <c r="K37" s="17">
+        <v>775941</v>
+      </c>
+      <c r="L37" s="17">
         <v>900418</v>
       </c>
-      <c r="E37" s="17">
+      <c r="M37" s="17">
         <v>1183523</v>
       </c>
-      <c r="F37" s="17">
+      <c r="N37" s="17">
         <v>2232037</v>
       </c>
-      <c r="G37" s="17">
+      <c r="O37" s="17">
         <v>1573365</v>
       </c>
-      <c r="H37" s="17">
+      <c r="P37" s="17">
         <v>1345345</v>
       </c>
-      <c r="I37" s="17">
+      <c r="Q37" s="17">
         <v>1428356</v>
       </c>
-      <c r="J37" s="17">
+      <c r="R37" s="17">
         <v>3119382</v>
       </c>
-      <c r="K37" s="17">
+      <c r="S37" s="17">
         <v>2549439</v>
       </c>
-      <c r="L37" s="17">
+      <c r="T37" s="17">
         <v>2221699</v>
       </c>
-      <c r="M37" s="17">
+      <c r="U37" s="17">
         <v>2505574</v>
       </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V37" s="17">
+        <v>5265748</v>
+      </c>
+      <c r="W37" s="17">
+        <v>4876942</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C38" s="11"/>
-      <c r="D38" s="11">
-        <v>0</v>
+      <c r="D38" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E38" s="11">
+        <v>7533</v>
+      </c>
+      <c r="F38" s="11">
+        <v>11669</v>
+      </c>
+      <c r="G38" s="11">
+        <v>8154</v>
+      </c>
+      <c r="H38" s="11">
+        <v>22782</v>
+      </c>
+      <c r="I38" s="11">
+        <v>21084</v>
+      </c>
+      <c r="J38" s="11">
+        <v>16735</v>
+      </c>
+      <c r="K38" s="11">
+        <v>8369</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
         <v>10349</v>
       </c>
-      <c r="F38" s="11">
+      <c r="N38" s="11">
         <v>10310</v>
       </c>
-      <c r="G38" s="11">
+      <c r="O38" s="11">
         <v>7761</v>
       </c>
-      <c r="H38" s="11">
+      <c r="P38" s="11">
         <v>8552</v>
       </c>
-      <c r="I38" s="11">
+      <c r="Q38" s="11">
         <v>8566</v>
       </c>
-      <c r="J38" s="11">
+      <c r="R38" s="11">
         <v>9251</v>
       </c>
-      <c r="K38" s="11">
+      <c r="S38" s="11">
         <v>10083</v>
       </c>
-      <c r="L38" s="11">
+      <c r="T38" s="11">
         <v>10944</v>
       </c>
-      <c r="M38" s="11">
+      <c r="U38" s="11">
         <v>10903</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V38" s="11">
+        <v>11533</v>
+      </c>
+      <c r="W38" s="11">
+        <v>12132</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C40" s="11"/>
-      <c r="D40" s="11">
-        <v>0</v>
+      <c r="D40" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>23200</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -1975,118 +3005,238 @@
       <c r="M40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+      <c r="O40" s="11">
+        <v>0</v>
+      </c>
+      <c r="P40" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0</v>
+      </c>
+      <c r="R40" s="11">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11">
+        <v>0</v>
+      </c>
+      <c r="U40" s="11">
+        <v>0</v>
+      </c>
+      <c r="V40" s="11">
+        <v>0</v>
+      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C41" s="15"/>
-      <c r="D41" s="15">
+      <c r="D41" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="15">
+        <v>26646</v>
+      </c>
+      <c r="F41" s="15">
+        <v>35131</v>
+      </c>
+      <c r="G41" s="15">
+        <v>36949</v>
+      </c>
+      <c r="H41" s="15">
+        <v>37534</v>
+      </c>
+      <c r="I41" s="15">
+        <v>36184</v>
+      </c>
+      <c r="J41" s="15">
+        <v>43783</v>
+      </c>
+      <c r="K41" s="15">
+        <v>42897</v>
+      </c>
+      <c r="L41" s="15">
         <v>42062</v>
       </c>
-      <c r="E41" s="15">
+      <c r="M41" s="15">
         <v>40394</v>
       </c>
-      <c r="F41" s="15">
+      <c r="N41" s="15">
         <v>56086</v>
       </c>
-      <c r="G41" s="15">
+      <c r="O41" s="15">
         <v>57086</v>
       </c>
-      <c r="H41" s="15">
+      <c r="P41" s="15">
         <v>58751</v>
       </c>
-      <c r="I41" s="15">
+      <c r="Q41" s="15">
         <v>59970</v>
       </c>
-      <c r="J41" s="15">
+      <c r="R41" s="15">
         <v>84168</v>
       </c>
-      <c r="K41" s="15">
+      <c r="S41" s="15">
         <v>90030</v>
       </c>
-      <c r="L41" s="15">
+      <c r="T41" s="15">
         <v>91919</v>
       </c>
-      <c r="M41" s="15">
+      <c r="U41" s="15">
         <v>91570</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V41" s="15">
+        <v>121315</v>
+      </c>
+      <c r="W41" s="15">
+        <v>126160</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C42" s="19"/>
-      <c r="D42" s="19">
+      <c r="D42" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="19">
+        <v>57379</v>
+      </c>
+      <c r="F42" s="19">
+        <v>46800</v>
+      </c>
+      <c r="G42" s="19">
+        <v>45103</v>
+      </c>
+      <c r="H42" s="19">
+        <v>60316</v>
+      </c>
+      <c r="I42" s="19">
+        <v>57268</v>
+      </c>
+      <c r="J42" s="19">
+        <v>60518</v>
+      </c>
+      <c r="K42" s="19">
+        <v>51266</v>
+      </c>
+      <c r="L42" s="19">
         <v>42062</v>
       </c>
-      <c r="E42" s="19">
+      <c r="M42" s="19">
         <v>50743</v>
       </c>
-      <c r="F42" s="19">
+      <c r="N42" s="19">
         <v>66396</v>
       </c>
-      <c r="G42" s="19">
+      <c r="O42" s="19">
         <v>64847</v>
       </c>
-      <c r="H42" s="19">
+      <c r="P42" s="19">
         <v>67303</v>
       </c>
-      <c r="I42" s="19">
+      <c r="Q42" s="19">
         <v>68536</v>
       </c>
-      <c r="J42" s="19">
+      <c r="R42" s="19">
         <v>93419</v>
       </c>
-      <c r="K42" s="19">
+      <c r="S42" s="19">
         <v>100113</v>
       </c>
-      <c r="L42" s="19">
+      <c r="T42" s="19">
         <v>102863</v>
       </c>
-      <c r="M42" s="19">
+      <c r="U42" s="19">
         <v>102473</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V42" s="19">
+        <v>132848</v>
+      </c>
+      <c r="W42" s="19">
+        <v>138292</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="17">
+      <c r="D43" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="17">
+        <v>478579</v>
+      </c>
+      <c r="F43" s="17">
+        <v>688116</v>
+      </c>
+      <c r="G43" s="17">
+        <v>451700</v>
+      </c>
+      <c r="H43" s="17">
+        <v>371465</v>
+      </c>
+      <c r="I43" s="17">
+        <v>525906</v>
+      </c>
+      <c r="J43" s="17">
+        <v>729186</v>
+      </c>
+      <c r="K43" s="17">
+        <v>827207</v>
+      </c>
+      <c r="L43" s="17">
         <v>942480</v>
       </c>
-      <c r="E43" s="17">
+      <c r="M43" s="17">
         <v>1234266</v>
       </c>
-      <c r="F43" s="17">
+      <c r="N43" s="17">
         <v>2298433</v>
       </c>
-      <c r="G43" s="17">
+      <c r="O43" s="17">
         <v>1638212</v>
       </c>
-      <c r="H43" s="17">
+      <c r="P43" s="17">
         <v>1412648</v>
       </c>
-      <c r="I43" s="17">
+      <c r="Q43" s="17">
         <v>1496892</v>
       </c>
-      <c r="J43" s="17">
+      <c r="R43" s="17">
         <v>3212801</v>
       </c>
-      <c r="K43" s="17">
+      <c r="S43" s="17">
         <v>2649552</v>
       </c>
-      <c r="L43" s="17">
+      <c r="T43" s="17">
         <v>2324562</v>
       </c>
-      <c r="M43" s="17">
+      <c r="U43" s="17">
         <v>2608047</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V43" s="17">
+        <v>5398596</v>
+      </c>
+      <c r="W43" s="17">
+        <v>5015234</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2099,14 +3249,24 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15">
-        <v>200000</v>
+      <c r="D45" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E45" s="15">
         <v>200000</v>
@@ -2121,28 +3281,58 @@
         <v>200000</v>
       </c>
       <c r="I45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="J45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="L45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="M45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="N45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="O45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="P45" s="15">
+        <v>200000</v>
+      </c>
+      <c r="Q45" s="15">
         <v>300000</v>
       </c>
-      <c r="J45" s="15">
+      <c r="R45" s="15">
         <v>300000</v>
       </c>
-      <c r="K45" s="15">
+      <c r="S45" s="15">
         <v>300000</v>
       </c>
-      <c r="L45" s="15">
+      <c r="T45" s="15">
         <v>300000</v>
       </c>
-      <c r="M45" s="15">
+      <c r="U45" s="15">
         <v>300000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V45" s="15">
+        <v>300000</v>
+      </c>
+      <c r="W45" s="15">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11">
-        <v>0</v>
+      <c r="D46" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -2171,125 +3361,245 @@
       <c r="M46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <v>0</v>
+      </c>
+      <c r="S46" s="11">
+        <v>0</v>
+      </c>
+      <c r="T46" s="11">
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <v>0</v>
+      </c>
+      <c r="V46" s="11">
+        <v>0</v>
+      </c>
+      <c r="W46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15">
-        <v>0</v>
+      <c r="D47" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E47" s="15">
+        <v>0</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="15">
+        <v>0</v>
+      </c>
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
         <v>33058</v>
       </c>
-      <c r="F47" s="15">
+      <c r="N47" s="15">
         <v>33058</v>
       </c>
-      <c r="G47" s="15">
+      <c r="O47" s="15">
         <v>93570</v>
       </c>
-      <c r="H47" s="15">
+      <c r="P47" s="15">
         <v>100000</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="Q47" s="15">
+        <v>0</v>
+      </c>
+      <c r="R47" s="15">
+        <v>0</v>
+      </c>
+      <c r="S47" s="15">
+        <v>0</v>
+      </c>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>0</v>
+      <c r="D48" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E48" s="11">
+        <v>0</v>
+      </c>
+      <c r="F48" s="11">
+        <v>0</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
         <v>-22603</v>
       </c>
-      <c r="F48" s="11">
-        <v>0</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+      <c r="O48" s="11">
         <v>-38521</v>
       </c>
-      <c r="H48" s="11">
+      <c r="P48" s="11">
         <v>-38521</v>
       </c>
-      <c r="I48" s="11">
+      <c r="Q48" s="11">
         <v>-38521</v>
       </c>
-      <c r="J48" s="11">
+      <c r="R48" s="11">
         <v>-38522</v>
       </c>
-      <c r="K48" s="11">
+      <c r="S48" s="11">
         <v>-38521</v>
       </c>
-      <c r="L48" s="11">
+      <c r="T48" s="11">
         <v>-38522</v>
       </c>
-      <c r="M48" s="11">
+      <c r="U48" s="11">
         <v>-38521</v>
       </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V48" s="11">
+        <v>-38521</v>
+      </c>
+      <c r="W48" s="11">
+        <v>-38521</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15">
-        <v>0</v>
+      <c r="D49" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E49" s="15">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="15">
+        <v>0</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
         <v>2510</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15">
+      <c r="N49" s="15">
+        <v>0</v>
+      </c>
+      <c r="O49" s="15">
         <v>10095</v>
       </c>
-      <c r="H49" s="15">
+      <c r="P49" s="15">
         <v>10095</v>
       </c>
-      <c r="I49" s="15">
+      <c r="Q49" s="15">
         <v>11243</v>
       </c>
-      <c r="J49" s="15">
+      <c r="R49" s="15">
         <v>20541</v>
       </c>
-      <c r="K49" s="15">
+      <c r="S49" s="15">
         <v>24144</v>
       </c>
-      <c r="L49" s="15">
+      <c r="T49" s="15">
         <v>30981</v>
       </c>
-      <c r="M49" s="15">
+      <c r="U49" s="15">
         <v>40309</v>
       </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V49" s="15">
+        <v>40309</v>
+      </c>
+      <c r="W49" s="15">
+        <v>52395</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11">
-        <v>20000</v>
+      <c r="D50" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E50" s="11">
-        <v>20000</v>
+        <v>19552</v>
       </c>
       <c r="F50" s="11">
         <v>20000</v>
@@ -2301,28 +3611,58 @@
         <v>20000</v>
       </c>
       <c r="I50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="J50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="K50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="L50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="M50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="N50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="O50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="P50" s="11">
+        <v>20000</v>
+      </c>
+      <c r="Q50" s="11">
         <v>30000</v>
       </c>
-      <c r="J50" s="11">
+      <c r="R50" s="11">
         <v>30000</v>
       </c>
-      <c r="K50" s="11">
+      <c r="S50" s="11">
         <v>30000</v>
       </c>
-      <c r="L50" s="11">
+      <c r="T50" s="11">
         <v>30000</v>
       </c>
-      <c r="M50" s="11">
+      <c r="U50" s="11">
         <v>30000</v>
       </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V50" s="11">
+        <v>30000</v>
+      </c>
+      <c r="W50" s="11">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15">
-        <v>0</v>
+      <c r="D51" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -2351,50 +3691,110 @@
       <c r="M51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="15">
+        <v>0</v>
+      </c>
+      <c r="O51" s="15">
+        <v>0</v>
+      </c>
+      <c r="P51" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="15">
+        <v>0</v>
+      </c>
+      <c r="R51" s="15">
+        <v>0</v>
+      </c>
+      <c r="S51" s="15">
+        <v>0</v>
+      </c>
+      <c r="T51" s="15">
+        <v>0</v>
+      </c>
+      <c r="U51" s="15">
+        <v>0</v>
+      </c>
+      <c r="V51" s="15">
+        <v>0</v>
+      </c>
+      <c r="W51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L52" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V52" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W52" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C53" s="15"/>
-      <c r="D53" s="15">
-        <v>0</v>
+      <c r="D53" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E53" s="15">
         <v>0</v>
@@ -2423,50 +3823,110 @@
       <c r="M53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="15">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="15">
+        <v>0</v>
+      </c>
+      <c r="R53" s="15">
+        <v>0</v>
+      </c>
+      <c r="S53" s="15">
+        <v>0</v>
+      </c>
+      <c r="T53" s="15">
+        <v>0</v>
+      </c>
+      <c r="U53" s="15">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
+        <v>0</v>
+      </c>
+      <c r="W53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="L54" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="P54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="S54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="T54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="U54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="V54" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="W54" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C55" s="15"/>
-      <c r="D55" s="15">
-        <v>0</v>
+      <c r="D55" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E55" s="15">
         <v>0</v>
@@ -2495,116 +3955,236 @@
       <c r="M55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="15">
+        <v>0</v>
+      </c>
+      <c r="O55" s="15">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>0</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+      <c r="S55" s="15">
+        <v>0</v>
+      </c>
+      <c r="T55" s="15">
+        <v>0</v>
+      </c>
+      <c r="U55" s="15">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
+        <v>0</v>
+      </c>
+      <c r="W55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="D56" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="11">
+        <v>173665</v>
+      </c>
+      <c r="F56" s="11">
+        <v>76306</v>
+      </c>
+      <c r="G56" s="11">
+        <v>139424</v>
+      </c>
+      <c r="H56" s="11">
+        <v>218071</v>
+      </c>
+      <c r="I56" s="11">
+        <v>278960</v>
+      </c>
+      <c r="J56" s="11">
+        <v>119238</v>
+      </c>
+      <c r="K56" s="11">
+        <v>244517</v>
+      </c>
+      <c r="L56" s="11">
         <v>498353</v>
       </c>
-      <c r="E56" s="11">
+      <c r="M56" s="11">
         <v>787642</v>
       </c>
-      <c r="F56" s="11">
+      <c r="N56" s="11">
         <v>351364</v>
       </c>
-      <c r="G56" s="11">
+      <c r="O56" s="11">
         <v>639789</v>
       </c>
-      <c r="H56" s="11">
+      <c r="P56" s="11">
         <v>1078909</v>
       </c>
-      <c r="I56" s="11">
+      <c r="Q56" s="11">
         <v>1476811</v>
       </c>
-      <c r="J56" s="11">
+      <c r="R56" s="11">
         <v>816039</v>
       </c>
-      <c r="K56" s="11">
+      <c r="S56" s="11">
         <v>1672359</v>
       </c>
-      <c r="L56" s="11">
+      <c r="T56" s="11">
         <v>2239476</v>
       </c>
-      <c r="M56" s="11">
+      <c r="U56" s="11">
         <v>2909830</v>
       </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V56" s="11">
+        <v>1301254</v>
+      </c>
+      <c r="W56" s="11">
+        <v>2257355</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="17">
+      <c r="D57" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="17">
+        <v>393217</v>
+      </c>
+      <c r="F57" s="17">
+        <v>296306</v>
+      </c>
+      <c r="G57" s="17">
+        <v>359424</v>
+      </c>
+      <c r="H57" s="17">
+        <v>438071</v>
+      </c>
+      <c r="I57" s="17">
+        <v>498960</v>
+      </c>
+      <c r="J57" s="17">
+        <v>339238</v>
+      </c>
+      <c r="K57" s="17">
+        <v>464517</v>
+      </c>
+      <c r="L57" s="17">
         <v>718353</v>
       </c>
-      <c r="E57" s="17">
+      <c r="M57" s="17">
         <v>1020607</v>
       </c>
-      <c r="F57" s="17">
+      <c r="N57" s="17">
         <v>604422</v>
       </c>
-      <c r="G57" s="17">
+      <c r="O57" s="17">
         <v>924933</v>
       </c>
-      <c r="H57" s="17">
+      <c r="P57" s="17">
         <v>1370483</v>
       </c>
-      <c r="I57" s="17">
+      <c r="Q57" s="17">
         <v>1779533</v>
       </c>
-      <c r="J57" s="17">
+      <c r="R57" s="17">
         <v>1128058</v>
       </c>
-      <c r="K57" s="17">
+      <c r="S57" s="17">
         <v>1987982</v>
       </c>
-      <c r="L57" s="17">
+      <c r="T57" s="17">
         <v>2561935</v>
       </c>
-      <c r="M57" s="17">
+      <c r="U57" s="17">
         <v>3241618</v>
       </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V57" s="17">
+        <v>1633042</v>
+      </c>
+      <c r="W57" s="17">
+        <v>2601229</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C58" s="19"/>
-      <c r="D58" s="19">
+      <c r="D58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="19">
+        <v>871796</v>
+      </c>
+      <c r="F58" s="19">
+        <v>984422</v>
+      </c>
+      <c r="G58" s="19">
+        <v>811124</v>
+      </c>
+      <c r="H58" s="19">
+        <v>809536</v>
+      </c>
+      <c r="I58" s="19">
+        <v>1024866</v>
+      </c>
+      <c r="J58" s="19">
+        <v>1068424</v>
+      </c>
+      <c r="K58" s="19">
+        <v>1291724</v>
+      </c>
+      <c r="L58" s="19">
         <v>1660833</v>
       </c>
-      <c r="E58" s="19">
+      <c r="M58" s="19">
         <v>2254873</v>
       </c>
-      <c r="F58" s="19">
+      <c r="N58" s="19">
         <v>2902855</v>
       </c>
-      <c r="G58" s="19">
+      <c r="O58" s="19">
         <v>2563145</v>
       </c>
-      <c r="H58" s="19">
+      <c r="P58" s="19">
         <v>2783131</v>
       </c>
-      <c r="I58" s="19">
+      <c r="Q58" s="19">
         <v>3276425</v>
       </c>
-      <c r="J58" s="19">
+      <c r="R58" s="19">
         <v>4340859</v>
       </c>
-      <c r="K58" s="19">
+      <c r="S58" s="19">
         <v>4637534</v>
       </c>
-      <c r="L58" s="19">
+      <c r="T58" s="19">
         <v>4886497</v>
       </c>
-      <c r="M58" s="19">
+      <c r="U58" s="19">
         <v>5849665</v>
       </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V58" s="19">
+        <v>7031638</v>
+      </c>
+      <c r="W58" s="19">
+        <v>7616463</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2617,6 +4197,16 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
